--- a/COPD_QA.xlsx
+++ b/COPD_QA.xlsx
@@ -2188,7 +2188,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2505,7 +2505,7 @@
     <col min="5" max="5" style="13" width="95.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="37.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="66">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="37.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="66">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="66">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>

--- a/COPD_QA.xlsx
+++ b/COPD_QA.xlsx
@@ -2794,7 +2794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="6" t="s">
         <v>97</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
